--- a/Balloon Prelab Data 2020.xlsx
+++ b/Balloon Prelab Data 2020.xlsx
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -95,6 +95,9 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -122,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -141,7 +144,10 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -150,7 +156,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -458,8 +464,8 @@
       <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2">
-        <v>19.75</v>
+      <c r="M2" s="6">
+        <v>9.75</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -498,8 +504,8 @@
       <c r="L3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2">
-        <v>19.75</v>
+      <c r="M3" s="6">
+        <v>9.75</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -520,7 +526,7 @@
       <c r="F4" s="1">
         <v>1.131</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -538,8 +544,8 @@
       <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="2">
-        <v>19.75</v>
+      <c r="M4" s="6">
+        <v>9.75</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -584,21 +590,21 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
